--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Armors" sheetId="2" r:id="rId2"/>
-    <sheet name="Misc" sheetId="3" r:id="rId3"/>
+    <sheet name="Consumable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>hpMax</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Axe</t>
   </si>
   <si>
-    <t>Warrior, Ranger, Acolyte</t>
-  </si>
-  <si>
     <t>oneHanded</t>
   </si>
   <si>
-    <t>Ranger, Rouge</t>
-  </si>
-  <si>
     <t>Staff</t>
   </si>
   <si>
@@ -94,6 +88,24 @@
   </si>
   <si>
     <t>Heavy armor</t>
+  </si>
+  <si>
+    <t>Healing potion</t>
+  </si>
+  <si>
+    <t>consumable</t>
+  </si>
+  <si>
+    <t>Warrior,Ranger,Acolyte</t>
+  </si>
+  <si>
+    <t>Ranger,Rouge</t>
+  </si>
+  <si>
+    <t>Warrior,Acolyte</t>
+  </si>
+  <si>
+    <t>Warrior,Ranger,Rouge,Acolyte</t>
   </si>
 </sst>
 </file>
@@ -437,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -498,13 +510,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -521,13 +533,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -544,13 +556,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -567,13 +579,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -590,13 +602,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -620,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,13 +670,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -681,13 +693,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -704,13 +716,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -732,12 +744,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>hpMax</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Mage</t>
   </si>
   <si>
-    <t>Warrior, Acolyte</t>
-  </si>
-  <si>
-    <t>Warrior, Ranger, Rouge, Acolyte</t>
-  </si>
-  <si>
     <t>Warrior, Ranger, Rouge, Acolyte, Mage</t>
   </si>
   <si>
@@ -106,6 +100,9 @@
   </si>
   <si>
     <t>Warrior,Ranger,Rouge,Acolyte</t>
+  </si>
+  <si>
+    <t>Warrior,Ranger,Rouge,Acolyte,Mage</t>
   </si>
 </sst>
 </file>
@@ -449,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -513,10 +510,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -539,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -562,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -582,10 +579,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -602,10 +599,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -632,13 +629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -673,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -696,10 +693,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -716,13 +713,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -784,13 +781,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>5</v>

--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Armors" sheetId="2" r:id="rId2"/>
     <sheet name="Consumable" sheetId="3" r:id="rId3"/>
+    <sheet name="Types" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>hpMax</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Axe</t>
   </si>
   <si>
-    <t>oneHanded</t>
-  </si>
-  <si>
     <t>Staff</t>
   </si>
   <si>
@@ -72,9 +70,6 @@
     <t>Warrior, Ranger, Rouge, Acolyte, Mage</t>
   </si>
   <si>
-    <t>twoHanded</t>
-  </si>
-  <si>
     <t>Short sword</t>
   </si>
   <si>
@@ -103,18 +98,66 @@
   </si>
   <si>
     <t>Warrior,Ranger,Rouge,Acolyte,Mage</t>
+  </si>
+  <si>
+    <t>weapon types</t>
+  </si>
+  <si>
+    <t>armor types</t>
+  </si>
+  <si>
+    <t>consumable types</t>
+  </si>
+  <si>
+    <t>one handed</t>
+  </si>
+  <si>
+    <t>two handed</t>
+  </si>
+  <si>
+    <t>chest piece</t>
+  </si>
+  <si>
+    <t>head piece</t>
+  </si>
+  <si>
+    <t>shoulder piece</t>
+  </si>
+  <si>
+    <t>leg piece</t>
+  </si>
+  <si>
+    <t>feet piece</t>
+  </si>
+  <si>
+    <t>arm piece</t>
+  </si>
+  <si>
+    <t>healing</t>
+  </si>
+  <si>
+    <t>stamina regenerator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -138,8 +181,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -447,7 +491,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +531,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -507,13 +548,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -530,13 +568,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -553,13 +588,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -576,13 +608,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -599,13 +628,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -629,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -667,13 +693,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -690,13 +716,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -713,13 +739,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -781,13 +807,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -805,4 +831,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -162,6 +162,27 @@
   </si>
   <si>
     <t>Warrior,Ranger,Rouge,Acolyte,Slayer</t>
+  </si>
+  <si>
+    <t>Healing potion2</t>
+  </si>
+  <si>
+    <t>Healing potion3</t>
+  </si>
+  <si>
+    <t>Healing potion4</t>
+  </si>
+  <si>
+    <t>Healing potion5</t>
+  </si>
+  <si>
+    <t>Healing potion6</t>
+  </si>
+  <si>
+    <t>Healing potion7</t>
+  </si>
+  <si>
+    <t>Healing potion8</t>
   </si>
 </sst>
 </file>
@@ -431,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3985,7 +4006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4046,25 +4069,165 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>

--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>Healing potion8</t>
+  </si>
+  <si>
+    <t>Light armor2</t>
+  </si>
+  <si>
+    <t>Robes2</t>
+  </si>
+  <si>
+    <t>Heavy armor2</t>
+  </si>
+  <si>
+    <t>Light armor3</t>
+  </si>
+  <si>
+    <t>Robes3</t>
+  </si>
+  <si>
+    <t>Heavy armor3</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2397,22 +2417,142 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
@@ -4006,7 +4146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Warrior,Ranger,Rouge,Acolyte</t>
   </si>
   <si>
-    <t>Light armor</t>
-  </si>
-  <si>
     <t>chest piece</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>Warrior,Ranger,Rouge,Acolyte,Mage</t>
-  </si>
-  <si>
-    <t>Heavy armor</t>
   </si>
   <si>
     <t>Healing potion</t>
@@ -185,22 +179,49 @@
     <t>Healing potion8</t>
   </si>
   <si>
-    <t>Light armor2</t>
+    <t>Leather armor</t>
   </si>
   <si>
-    <t>Robes2</t>
+    <t>Steel armor</t>
   </si>
   <si>
-    <t>Heavy armor2</t>
+    <t>Hood</t>
   </si>
   <si>
-    <t>Light armor3</t>
+    <t>Mask</t>
   </si>
   <si>
-    <t>Robes3</t>
+    <t>Wizard Hat</t>
   </si>
   <si>
-    <t>Heavy armor3</t>
+    <t>Steel Helmet</t>
+  </si>
+  <si>
+    <t>Head bandages</t>
+  </si>
+  <si>
+    <t>Blindfold of the damned</t>
+  </si>
+  <si>
+    <t>Steel cauldrons</t>
+  </si>
+  <si>
+    <t>Iron cauldrons</t>
+  </si>
+  <si>
+    <t>Leather cauldrons</t>
+  </si>
+  <si>
+    <t>Iron armor</t>
+  </si>
+  <si>
+    <t>Acolyte,Ranger,Rouge</t>
+  </si>
+  <si>
+    <t>Mage,Acolyte,Ranger,Rouge</t>
+  </si>
+  <si>
+    <t>Acolyte</t>
   </si>
 </sst>
 </file>
@@ -514,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -606,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -629,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -649,7 +670,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -672,10 +693,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -695,10 +716,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2309,12 +2330,12 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -2347,347 +2368,427 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1">
+        <v>29</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4">
         <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="G7" s="1">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-1</v>
+      <c r="G8" s="4">
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
+      <c r="G9" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G14" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
@@ -4187,13 +4288,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -4210,13 +4311,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -4233,13 +4334,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -4256,13 +4357,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -4279,13 +4380,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -4302,13 +4403,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -4325,13 +4426,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -4348,13 +4449,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -5976,13 +6077,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5990,10 +6091,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6001,30 +6102,30 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Robes</t>
-  </si>
-  <si>
-    <t>Warrior,Ranger,Rouge,Acolyte,Mage</t>
   </si>
   <si>
     <t>Healing potion</t>
@@ -215,13 +212,16 @@
     <t>Iron armor</t>
   </si>
   <si>
-    <t>Acolyte,Ranger,Rouge</t>
+    <t>Acolyte,Ranger,Rouge,Slayer</t>
   </si>
   <si>
-    <t>Mage,Acolyte,Ranger,Rouge</t>
+    <t>Acolyte,Slayer</t>
   </si>
   <si>
-    <t>Acolyte</t>
+    <t>Warrior,Ranger,Rouge,Acolyte,Mage,Slayer</t>
+  </si>
+  <si>
+    <t>Mage,Acolyte,Ranger,Rouge,Slayer</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2330,13 +2330,13 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -2370,13 +2370,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2393,13 +2393,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2439,13 +2439,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>-5</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -2554,13 +2554,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -2625,8 +2625,8 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -4288,13 +4288,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -4334,13 +4334,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -4357,13 +4357,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
@@ -4380,13 +4380,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -4403,13 +4403,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -4426,13 +4426,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -4449,13 +4449,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -6077,13 +6077,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6091,10 +6091,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6102,10 +6102,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6115,17 +6115,17 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Mage,Acolyte,Ranger,Rouge,Slayer</t>
+  </si>
+  <si>
+    <t>Quilted coat</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2333,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2671,27 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>

--- a/OpenWorld/Resources/Items.xlsx
+++ b/OpenWorld/Resources/Items.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Robes</t>
   </si>
   <si>
-    <t>Healing potion</t>
-  </si>
-  <si>
     <t>Warrior, Ranger, Rouge, Acolyte, Mage</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>shoulder piece</t>
   </si>
   <si>
-    <t>stamina regenerator</t>
-  </si>
-  <si>
     <t>arm piece</t>
   </si>
   <si>
@@ -155,27 +149,6 @@
     <t>Warrior,Ranger,Rouge,Acolyte,Slayer</t>
   </si>
   <si>
-    <t>Healing potion2</t>
-  </si>
-  <si>
-    <t>Healing potion3</t>
-  </si>
-  <si>
-    <t>Healing potion4</t>
-  </si>
-  <si>
-    <t>Healing potion5</t>
-  </si>
-  <si>
-    <t>Healing potion6</t>
-  </si>
-  <si>
-    <t>Healing potion7</t>
-  </si>
-  <si>
-    <t>Healing potion8</t>
-  </si>
-  <si>
     <t>Leather armor</t>
   </si>
   <si>
@@ -225,17 +198,190 @@
   </si>
   <si>
     <t>Quilted coat</t>
+  </si>
+  <si>
+    <t>Potion of healing (small)</t>
+  </si>
+  <si>
+    <t>Potion of healing (medium)</t>
+  </si>
+  <si>
+    <t>Potion of healing (large)</t>
+  </si>
+  <si>
+    <t>Potion of stamina (small)</t>
+  </si>
+  <si>
+    <t>Potion of stamina (medium)</t>
+  </si>
+  <si>
+    <t>Potion of stamina regeneration (large)</t>
+  </si>
+  <si>
+    <t>Potion of stamina regeneration (medium)</t>
+  </si>
+  <si>
+    <t>Potion of stamina regeneration (small)</t>
+  </si>
+  <si>
+    <t>Potion of strength (small)</t>
+  </si>
+  <si>
+    <t>Potion of strength (medium)</t>
+  </si>
+  <si>
+    <t>Potion of strength (large)</t>
+  </si>
+  <si>
+    <t>Potion of defence (small)</t>
+  </si>
+  <si>
+    <t>Potion of defence (medium)</t>
+  </si>
+  <si>
+    <t>Potion of defence (large)</t>
+  </si>
+  <si>
+    <t>Potion of health (small)</t>
+  </si>
+  <si>
+    <t>Potion of health (medium)</t>
+  </si>
+  <si>
+    <t>Potion of health (large)</t>
+  </si>
+  <si>
+    <t>Potion of stamina (large)</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>stamina</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stamina regeneration</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Ale</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Roasted Chicken</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Tonic</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>hpMax/hp regen</t>
+  </si>
+  <si>
+    <t>Smoked Salmon</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Mead</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Jerky</t>
+  </si>
+  <si>
+    <t>Grilled Steak</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Cider</t>
+  </si>
+  <si>
+    <t>Porridge</t>
+  </si>
+  <si>
+    <t>Sausages</t>
+  </si>
+  <si>
+    <t>Hardboiled Eggs</t>
+  </si>
+  <si>
+    <t>Baked Potato</t>
+  </si>
+  <si>
+    <t>Bread Pudding</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Roasted Venison</t>
+  </si>
+  <si>
+    <t>Preserved Fruit</t>
+  </si>
+  <si>
+    <t>Smoked Ham</t>
+  </si>
+  <si>
+    <t>staminaMax/stamina regen</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Rabbit Meat</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Nuts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,12 +417,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -538,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -630,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -653,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -673,7 +821,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -696,10 +844,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -719,10 +867,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2332,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2373,13 +2521,13 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2396,13 +2544,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2419,13 +2567,13 @@
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2442,13 +2590,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2465,13 +2613,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2488,13 +2636,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>-5</v>
@@ -2511,13 +2659,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -2534,13 +2682,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
@@ -2557,13 +2705,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2580,7 +2728,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -2603,7 +2751,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>19</v>
@@ -2629,7 +2777,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -2649,7 +2797,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -2672,7 +2820,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -4270,19 +4418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4296,8 +4444,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4305,19 +4453,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="G1" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -4334,16 +4482,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -4357,16 +4505,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -4380,39 +4528,39 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -4421,21 +4569,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -4444,24 +4592,24 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4472,238 +4620,992 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="1"/>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>-2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6067,8 +6969,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState ref="A20:G50">
+    <sortCondition ref="A20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -6088,7 +6993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6100,13 +7007,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6114,10 +7021,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,30 +7032,42 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
